--- a/doc/js.xlsx
+++ b/doc/js.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>返回页面顶部</t>
   </si>
@@ -233,6 +233,53 @@
   }
 }
 Debounce(()=&gt;console.log(1));</t>
+  </si>
+  <si>
+    <t>生成随机 UUID</t>
+  </si>
+  <si>
+    <t>const generateRadomID = () =&gt; Math.random().toString(36).substr(2);</t>
+  </si>
+  <si>
+    <t>判断 URL 地址是否有效</t>
+  </si>
+  <si>
+    <t>const IsUrl = val =&gt; {
+    try {
+        if (new URL(val)) return true
+    } catch(e) {
+        return false
+    }
+}
+console.log(IsUrl("https://www.baidu.cn") );  // true
+console.log(IsUrl("www.baidu.cn"));  // false</t>
+  </si>
+  <si>
+    <t>阻止事件冒泡</t>
+  </si>
+  <si>
+    <t>//js 原生方法
+function stopPropagation(e) {
+    e = e || window.event;
+    if(e.stopPropagation) {   //W3C阻止冒泡方法
+        e.stopPropagation();
+    } else {
+        e.cancelBubble = true; //IE阻止冒泡方法
+    }
+}
+document.getElementById('need_hide').onclick = function(e) {
+    stopPropagation(e);
+}
+//jQuery方法
+$('.btn').click(function(){
+    return false  //直接在方法里 return false 即可 
+})</t>
+  </si>
+  <si>
+    <t>检测是否为微信浏览器</t>
+  </si>
+  <si>
+    <t>const isWeixin = () =&gt; navigator.userAgent.toLowerCase().match(/MicroMessenger/i) == "micromessenger";</t>
   </si>
 </sst>
 </file>
@@ -848,9 +895,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1176,8 +1226,8 @@
   <sheetPr/>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1372,10 +1422,38 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" ht="70" customHeight="1"/>
-    <row r="21" ht="70" customHeight="1"/>
-    <row r="22" ht="70" customHeight="1"/>
-    <row r="23" ht="70" customHeight="1"/>
+    <row r="20" ht="70" customHeight="1" spans="1:3">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" ht="70" customHeight="1" spans="1:3">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" ht="70" customHeight="1" spans="1:3">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" ht="70" customHeight="1" spans="1:3">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="24" ht="70" customHeight="1"/>
     <row r="25" ht="70" customHeight="1"/>
     <row r="26" ht="70" customHeight="1"/>

--- a/doc/js.xlsx
+++ b/doc/js.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
   <si>
     <t>返回页面顶部</t>
   </si>
@@ -160,7 +160,17 @@
     <t>const fibonacci = n =&gt;  Array(n).fill(0).reduce((acc, val, i) =&gt; acc.concat(i &gt; 1 ? acc[i - 1] + acc[i - 2] : i), []);</t>
   </si>
   <si>
-    <t>RGB 转十六进制</t>
+    <t>生成随机十六进制颜色</t>
+  </si>
+  <si>
+    <t>const randomHexColor = () =&gt; {
+    var hex = Math.floor(Math.random() * 16777216).toString(16);
+    while (hex.length &lt; 6) { hex = '0' + hex; }
+    return '#' + hex;
+}</t>
+  </si>
+  <si>
+    <t>RGB 颜色转十六进制</t>
   </si>
   <si>
     <t>const rgbToHex = (r, g, b) =&gt; '#'+((r &lt;&lt; 16) + (g &lt;&lt; 8) + b).toString(16).padStart(6, '0');</t>
@@ -204,35 +214,114 @@
 onlyOnce(); // 不执行</t>
   </si>
   <si>
-    <t>防抖</t>
+    <t>防抖 Debounce</t>
+  </si>
+  <si>
+    <t>事件触发一段时间后才会调用，频繁触发只会在最后一次执行；一般使用在搜索联想</t>
   </si>
   <si>
     <t>/**
- * 防抖
- * @param {Function} func 要执行的回调函数
- * @param {Number} wait 延时的时间
- * @param {Boolean} immediate 是否立即执行
- * @return null
+ * @desc 函数防抖
+ * @param {Function} callback 回调函数
+ * @param {Number} wait 延迟毫秒数
+ * @param {Boolean} immediate 立即执行
+ * 
+ * @return {Function}
  */
-let timeout;
-function Debounce(func, wait = 3000, immediate = true) {
-  // 清除定时器
-  if (timeout !== null) clearTimeout(timeout);
-  // 立即执行，此类情况一般用不到
-  if (immediate) {
-    var callNow = !timeout;
-    timeout = setTimeout(function() {
-      timeout = null;
-    }, wait);
-    if (callNow) typeof func === 'function' &amp;&amp; func();
-  } else {
-    // 设置定时器，当最后一次操作后，timeout不会再被清除，所以在延时wait毫秒后执行func回调方法
-    timeout = setTimeout(function() {
-      typeof func === 'function' &amp;&amp; func();
-    }, wait);
+const debounce = (callback, wait = 300, immediate = false) =&gt; {
+  let timer
+  return function () {
+    let ctx = this
+    let args = arguments
+    if (timer) {
+      clearTimeout(timer)
+    }
+    if (immediate) {
+      let callNow = !timer
+      timer = setTimeout(() =&gt; {
+        timer = null
+      }, wait)
+      if (callNow) {
+        callback.apply(ctx, args)
+      }
+    } else {
+      timer = setTimeout(() =&gt; {
+        callback.apply(ctx, args)
+      }, wait)
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>节流 Throttle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">连续触发事件，但在一段时间内只触发一次；
+一般使用在resize、touchmove，无限加载等；
+防止表单提交按钮被多次触发，我们应该选择使用节流而不是防抖方案，秒杀抢购等业务场景
+</t>
+  </si>
+  <si>
+    <t>/**
+ * @desc 函数节流 时间戳版本
+ * @param callback 函数
+ * @param wait 延迟执行毫秒数
+ */
+const throttle = (callback, wait) =&gt; {
+  let prev = Date.now()
+  return function () {
+    let context = this
+    let args = arguments
+    let now = Date.now()
+    if (now - prev &gt;= wait) {
+      callback.apply(context, args)
+      prev = now
+    }
   }
 }
-Debounce(()=&gt;console.log(1));</t>
+/**
+ * @desc 函数节流 定时器版本
+ * @param callback 函数
+ * @param wait 延迟执行毫秒数
+ */
+const throttle = (callback, wait) =&gt; {
+  let timer = null
+  return function () {
+    let context = this
+    let args = arguments
+    if (!timer) {
+      timer = setTimeout(() =&gt; {
+        callback.apply(context, args)
+        timer = null
+      }, wait)
+    }
+  }
+}
+/**
+ * @desc 函数节流 结合
+ * @param callback 函数
+ * @param wait 延迟执行毫秒数
+ */
+const throttle = (callback, wait) =&gt; {
+  let timer = null
+  let prev = Date.now()
+  return function () {
+    let curTime = Date.now()
+    let remaining = wait - (curTime - prev)
+    let context = this
+    let args = arguments
+    // 取消定时器，重新计算remaining
+    clearTimeout(timer)
+    if (remaining &lt;= 0) {
+      // 第一次触发立即执行处理函数
+      callback.apply(context, args)
+      prev = Date.now()
+    } else {
+      // 没到时间，最后一次触发还能执行处理函数
+      timer = setTimeout(callback, remaining)
+    }
+  }
+}</t>
   </si>
   <si>
     <t>生成随机 UUID</t>
@@ -280,6 +369,446 @@
   </si>
   <si>
     <t>const isWeixin = () =&gt; navigator.userAgent.toLowerCase().match(/MicroMessenger/i) == "micromessenger";</t>
+  </si>
+  <si>
+    <t>屏蔽右键菜单</t>
+  </si>
+  <si>
+    <t>document.oncontextmenu = function(event) { 
+    if (window.event) {
+        event = window.event;
+    }
+    try {
+        var the = event.srcElement;
+        if (! ((the.tagName == "INPUT" &amp;&amp; the.type.toLowerCase() == "text") || the.tagName == "TEXTAREA")) {
+            alert("浏览器右键已被禁止");
+            return false;
+        }
+        return true;
+    } catch(e) {
+        return false;
+    }
+}</t>
+  </si>
+  <si>
+    <t>屏蔽复制</t>
+  </si>
+  <si>
+    <t>document.oncopy = function(event) {
+  if (window.event) {
+    event = window.event;
+  }
+  try {
+    var the = event.srcElement;
+    if (! ((the.tagName == "INPUT" &amp;&amp; the.type.toLowerCase() == "text") || the.tagName == "TEXTAREA")) {
+      return false;
+    }
+    return true;
+  } catch(e) {
+    return false;
+  }
+}</t>
+  </si>
+  <si>
+    <t>屏蔽剪切</t>
+  </si>
+  <si>
+    <t>document.oncut = function(event) {
+  if (window.event) {
+    event = window.event;
+  }
+  try {
+    var the = event.srcElement;
+    if (! ((the.tagName == "INPUT" &amp;&amp; the.type.toLowerCase() == "text") || the.tagName == "TEXTAREA")) {
+      return false;
+    }
+    return true;
+  } catch(e) {
+    return false;
+  }
+}</t>
+  </si>
+  <si>
+    <t>屏蔽粘贴</t>
+  </si>
+  <si>
+    <t>document.onpaste = function(event) { 
+  if (window.event) { 
+    event = window.event; 
+  } 
+  try { 
+    var the = event.srcElement; 
+    if (! ((the.tagName == "INPUT" &amp;&amp; the.type.toLowerCase() == "text") || the.tagName == "TEXTAREA")) { 
+      return false; 
+    } 
+    return true; 
+  } catch(e) { 
+    return false; 
+  } 
+}</t>
+  </si>
+  <si>
+    <t>屏蔽选中</t>
+  </si>
+  <si>
+    <t>document.onselectstart = function(event) {
+  if (window.event) {
+    event = window.event;
+  }
+  try {
+    var the = event.srcElement;
+    if (! ((the.tagName == "INPUT" &amp;&amp; the.type.toLowerCase() == "text") || the.tagName == "TEXTAREA")) {
+      return false;
+    }
+    return true;
+  } catch(e) {
+    return false;
+  }
+}</t>
+  </si>
+  <si>
+    <t>根据 url 地址下载</t>
+  </si>
+  <si>
+    <t>创建、触发虚拟 a 链接进行下载</t>
+  </si>
+  <si>
+    <t>const download = (url) =&gt; {
+        var isChrome = navigator.userAgent.toLowerCase().indexOf('chrome') &gt; -1;
+        var isSafari = navigator.userAgent.toLowerCase().indexOf('safari') &gt; -1;
+        if (isChrome || isSafari) {
+            var link = document.createElement('a');
+            link.href = url;
+            if (link.download !== undefined) {
+                var fileName = url.substring(url.lastIndexOf('/') + 1, url.length);
+                link.download = fileName;
+            }
+            if (document.createEvent) {
+                var e = document.createEvent('MouseEvents');
+                e.initEvent('click', true, true);
+                link.dispatchEvent(e);
+                return true;
+            }
+        }
+        if (url.indexOf('?') === -1) {
+            url += '?download';
+        }
+        window.open(url, '_self');
+        return true;
+    }</t>
+  </si>
+  <si>
+    <t>将阿拉伯数字翻译成中文的大写数字</t>
+  </si>
+  <si>
+    <t>const numberToChinese = (num) =&gt; {
+    var AA = new Array("零", "一", "二", "三", "四", "五", "六", "七", "八", "九", "十");
+    var BB = new Array("", "十", "百", "仟", "萬", "億", "点", "");
+    var a = ("" + num).replace(/(^0*)/g, "").split("."),
+        k = 0,
+        re = "";
+    for (var i = a[0].length - 1; i &gt;= 0; i--) {
+        switch (k) {
+            case 0:
+                re = BB[7] + re;
+                break;
+            case 4:
+                if (!new RegExp("0{4}//d{" + (a[0].length - i - 1) + "}$")
+                    .test(a[0]))
+                    re = BB[4] + re;
+                break;
+            case 8:
+                re = BB[5] + re;
+                BB[7] = BB[5];
+                k = 0;
+                break;
+        }
+        if (k % 4 == 2 &amp;&amp; a[0].charAt(i + 2) != 0 &amp;&amp; a[0].charAt(i + 1) == 0)
+            re = AA[0] + re;
+        if (a[0].charAt(i) != 0)
+            re = AA[a[0].charAt(i)] + BB[k % 4] + re;
+        k++;
+    }
+    if (a.length &gt; 1) // 加上小数部分(如果有小数部分)
+    {
+        re += BB[6];
+        for (var i = 0; i &lt; a[1].length; i++)
+            re += AA[a[1].charAt(i)];
+    }
+    if (re == '一十')
+        re = "十";
+    if (re.match(/^一/) &amp;&amp; re.length == 3)
+        re = re.replace("一", "");
+    return re;
+}</t>
+  </si>
+  <si>
+    <t>封装 ajax 函数</t>
+  </si>
+  <si>
+    <t>/* 封装ajax函数
+ * @param {string}obj.type http连接的方式，包括POST和GET两种方式
+ * @param {string}obj.url 发送请求的url
+ * @param {boolean}obj.async 是否为异步请求，true为异步的，false为同步的
+ * @param {object}obj.data 发送的参数，格式为对象类型
+ * @param {function}obj.success ajax发送并接收成功调用的回调函数
+ * @param {function}obj.error ajax发送失败或者接收失败调用的回调函数
+ */
+//  ecDo.ajax({
+//      type:'get',
+//      url:'xxx',
+//      data:{
+//          id:'111'
+//      },
+//      success:function(res){
+//          console.log(res)
+//      }
+//  })
+ajax: function (obj) {
+    obj = obj || {};
+    obj.type = obj.type.toUpperCase() || 'POST';
+    obj.url = obj.url || '';
+    obj.async = obj.async || true;
+    obj.data = obj.data || null;
+    obj.success = obj.success || function () {
+        };
+    obj.error = obj.error || function () {
+        };
+    var xmlHttp = null;
+    if (XMLHttpRequest) {
+        xmlHttp = new XMLHttpRequest();
+    } else {
+        xmlHttp = new ActiveXObject('Microsoft.XMLHTTP');
+    }
+    var params = [];
+    for (var key in obj.data) {
+        params.push(key + '=' + obj.data[key]);
+    }
+    var postData = params.join('&amp;');
+    if (obj.type.toUpperCase() === 'POST') {
+        xmlHttp.open(obj.type, obj.url, obj.async);
+        xmlHttp.setRequestHeader('Content-Type', 'application/x-www-form-urlencoded;charset=utf-8');
+        xmlHttp.send(postData);
+    } else if (obj.type.toUpperCase() === 'GET') {
+        xmlHttp.open(obj.type, obj.url + '?' + postData, obj.async);
+        xmlHttp.send(null);
+    }
+    xmlHttp.onreadystatechange = function () {
+        if (xmlHttp.readyState == 4 &amp;&amp; xmlHttp.status == 200) {
+            obj.success(xmlHttp.responseText);
+        } else {
+            obj.error(xmlHttp.responseText);
+        }
+    };
+}</t>
+  </si>
+  <si>
+    <t>图片懒加载实现</t>
+  </si>
+  <si>
+    <t>图片没加载出来时用一张图片代替</t>
+  </si>
+  <si>
+    <t>aftLoadImg: function (obj, url, errorUrl,cb) {
+    var oImg = new Image(), _this = this;
+    oImg.src = url;
+    oImg.onload = function () {
+        obj.src = oImg.src;
+        if (cb &amp;&amp; _this.istype(cb, 'function')) {
+            cb(obj);
+        }
+    }
+    oImg.onerror=function () {
+        obj.src=errorUrl;
+        if (cb &amp;&amp; _this.istype(cb, 'function')) {
+            cb(obj);
+        }
+    }
+},
+//图片滚动懒加载
+//@className {string} 要遍历图片的类名
+//@num {number} 距离多少的时候开始加载 默认 0
+//比如，一张图片距离文档顶部3000，num参数设置200，那么在页面滚动到2800的时候，图片加载。不传num参数就滚动，num默认是0，页面滚动到3000就加载
+//html代码
+//&lt;p&gt;&lt;img data-src="&lt;/root"&gt;&lt;/p&gt;"https://user-gold-cdn.xitu.io/2017/12/7/160319f12631736f" class="load-img" width='528' height='304' /&gt;
+//&lt;p&gt;&lt;img data-src="&lt;/root"&gt;&lt;/p&gt;"https://user-gold-cdn.xitu.io/2017/12/7/160319f12631736f" class="load-img" width='528' height='304' /&gt;
+//&lt;p&gt;&lt;img data-src="&lt;/root"&gt;&lt;/p&gt;"https://user-gold-cdn.xitu.io/2017/12/7/160319f12631736f" class="load-img" width='528' height='304' /&gt;....
+//data-src储存src的数据，到需要加载的时候把data-src的值赋值给src属性，图片就会加载。
+//详细可以查看testLoadImg.html
+//window.onload = function() {
+//    loadImg('load-img',100);
+//    window.onscroll = function() {
+//        ecDo.loadImg('load-img',100);
+//        }
+//}
+loadImg: function (className, num, errorUrl) {
+    var _className = className || 'ec-load-img', _num = num || 0, _this = this,_errorUrl=errorUrl||null;
+    var oImgLoad = document.getElementsByClassName(_className);
+    for (var i = 0, len = oImgLoad.length; i &lt; len; i++) {
+        //如果图片已经滚动到指定的高度
+        if (document.documentElement.clientHeight + document.documentElement.scrollTop &gt; oImgLoad[i].offsetTop - _num &amp;&amp; !oImgLoad[i].isLoad) {
+            //记录图片是否已经加载
+            oImgLoad[i].isLoad = true;
+            //设置过渡，当图片下来的时候有一个图片透明度变化
+            oImgLoad[i].style.cssText = "transition: ''; opacity: 0;"
+            if (oImgLoad[i].dataset) {
+                this.aftLoadImg(oImgLoad[i], oImgLoad[i].dataset.src, _errorUrl, function (o) {
+                    //添加定时器，确保图片已经加载完了，再把图片指定的的class，清掉，避免重复编辑
+                    setTimeout(function () {
+                        if (o.isLoad) {
+                            _this.removeClass(o, _className);
+                            o.style.cssText = "";
+                        }
+                    }, 1000)
+                });
+            } else {
+                this.aftLoadImg(oImgLoad[i], oImgLoad[i].getAttribute("data-src"), _errorUrl, function (o) {
+                    //添加定时器，确保图片已经加载完了，再把图片指定的的class，清掉，避免重复编辑
+                    setTimeout(function () {
+                        if (o.isLoad) {
+                            _this.removeClass(o, _className);
+                            o.style.cssText = "";
+                        }
+                    }, 1000)
+                });
+            }
+            (function (i) {
+                setTimeout(function () {
+                    oImgLoad[i].style.cssText = "transition:all 1s; opacity: 1;";
+                }, 16)
+            })(i);
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>将 HTML 内容保存为图片</t>
+  </si>
+  <si>
+    <t>使用之前要引入 html2Canvas.js
+https://cdn.bootcss.com/html2canvas/0.5.0-beta4/html2canvas.min.js
+function saveDomImage(html2Canvas, dom, fileName) { 
+ if(mui.os.plus) {
+  if(typeof html2Canvas == null)
+   throw Error("html2Canvas is not defined");
+  if(dom == null)
+   throw Error("saveDomImage param : dom is null");
+  if(fileName == null || fileName == "")
+   fileName = "untitled.png";
+  var getPixelRatio = function(context) {
+   var backingStore = context.backingStorePixelRatio ||
+    context.webkitBackingStorePixelRatio || 1;
+   return(window.devicePixelRatio || 1) / backingStore;
+  };
+  var _canvas = document.createElement('canvas');
+  var ctx = _canvas.getContext('2d');
+  var ratio = getPixelRatio(ctx);
+  ctx.scale(ratio, ratio);
+  var w = dom.offsetWidth;
+  var h = dom.offsetHeight;
+  _canvas.width = w;
+  _canvas.height = h;
+  _canvas.style.width = w * 　ratio + 'px';
+  _canvas.style.height = h　 * 　ratio + "px";
+  html2Canvas(dom, {
+   allowTaint: true,
+   logging: false,
+   profile: true,
+   useCROS: true,
+   canvas: _canvas,
+   onrendered: function(canvas) {
+    var dataUrl = canvas.toDataURL();
+    var b = new plus.nativeObj.Bitmap('bitblmap');
+    b.loadBase64Data(dataUrl, function() {
+     /*这里一定要是_doc目录*/
+     b.save("_doc/" + fileName, {
+      overwrite: true
+     }, function(object) {
+      //保存到相册
+      plus.gallery.save("_doc/" + fileName, function() {
+       mui.toast("图片已保存到相册");
+      }, function() {
+       mui.toast("图片保存失败");
+      });
+     }, function() {
+      mui.toast("图片保存失败");
+     });
+    }, function() {
+     mui.toast("图片保存失败");
+    });
+   }
+  });
+ }
+}</t>
+  </si>
+  <si>
+    <t>Cookie 操作封装</t>
+  </si>
+  <si>
+    <t>//用闭包将代码包起来，避免引入时污染全局作用域
+(function(global){
+    //获取cookie对象，格式化成对象形式
+    function getCookiesObj(){
+        var cookies = {};
+        if(document.cookie){
+            var objs = document.cookie.split(';');
+            for(var i in objs){
+                var index = objs[i].indexOf('=');
+                var key = objs[i].substr(0,index);
+                var value = objs[i].substr(index+1,objs[i].length);
+                cookies[key] = value;
+            }
+        }
+        return cookie;
+    }
+    //获取cookie
+    function get(key){
+        return decodeURIComponent(getCookiesObj()[key]) || null;
+    }
+    //设置cookie
+    function set(name,value,opts){
+        //opts: maxAge,path,domain,secure
+        if(name &amp;&amp; value){
+            var cookie = encodeURIComponent(name) + '=' + encodeURIComponent(value);
+            if(opts){
+                if(opts.maxAge){
+                    cookie += ';max-age=' + opts.maxAge;
+                }
+                if(opts.path){
+                    cookie += ';max-age=' + opts.path;
+                }
+                if(opts.domain){
+                    cookie += ';max-age=' + opts.doamin;
+                }
+                if(opts.secure){
+                    cookie += ';max-age=' + opts.secure;
+                }
+            }
+            document.cookie = cookie;
+            return cookie;
+        }else{
+            return '';
+        }
+    }
+    function remove(key){
+        if(getCookiesObj()[key]){
+            document.cookie = key + '=;max-age=0';
+        }
+    }
+    function clear(){
+        var cookies = getCookiesObj();
+        for(var i in cookies){
+            document.cookie = cookies[i] + '=;max-age=0';
+        }
+    }
+    global['cookie'] = {
+        'getCookiesObj': getCookiesObj,
+        'set': set,
+        'get': get,
+        'remove': remove,
+        'clear': clear
+    }
+})(window)</t>
   </si>
 </sst>
 </file>
@@ -1224,16 +1753,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="49.75" customWidth="1"/>
+    <col min="2" max="2" width="52.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="119.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1257,7 +1786,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
@@ -1284,7 +1813,7 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
@@ -1295,7 +1824,7 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
@@ -1306,7 +1835,7 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
@@ -1325,7 +1854,7 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1336,7 +1865,7 @@
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
@@ -1347,7 +1876,7 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1358,7 +1887,7 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1369,7 +1898,7 @@
       <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1380,7 +1909,7 @@
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C15" t="s">
@@ -1391,7 +1920,7 @@
       <c r="A16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1399,7 +1928,7 @@
       <c r="A17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1407,15 +1936,15 @@
       <c r="A18" t="s">
         <v>43</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" ht="70" customHeight="1" spans="1:3">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1426,47 +1955,150 @@
       <c r="A20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B20" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" ht="70" customHeight="1" spans="1:3">
       <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="2" t="s">
         <v>51</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22" ht="70" customHeight="1" spans="1:3">
       <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" ht="70" customHeight="1" spans="1:3">
       <c r="A23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" ht="70" customHeight="1"/>
-    <row r="25" ht="70" customHeight="1"/>
-    <row r="26" ht="70" customHeight="1"/>
-    <row r="27" ht="70" customHeight="1"/>
-    <row r="28" ht="70" customHeight="1"/>
-    <row r="29" ht="70" customHeight="1"/>
-    <row r="30" ht="70" customHeight="1"/>
-    <row r="31" ht="70" customHeight="1"/>
-    <row r="32" ht="70" customHeight="1"/>
-    <row r="33" ht="70" customHeight="1"/>
-    <row r="34" ht="70" customHeight="1"/>
-    <row r="35" ht="70" customHeight="1"/>
-    <row r="36" ht="70" customHeight="1"/>
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" ht="70" customHeight="1" spans="1:3">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" ht="70" customHeight="1" spans="1:3">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" ht="70" customHeight="1" spans="1:3">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" ht="70" customHeight="1" spans="1:3">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" ht="70" customHeight="1" spans="1:3">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" ht="70" customHeight="1" spans="1:3">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" ht="70" customHeight="1" spans="1:3">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" ht="70" customHeight="1" spans="1:3">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" ht="70" customHeight="1" spans="1:3">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" ht="70" customHeight="1" spans="1:3">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" ht="70" customHeight="1" spans="1:3">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" ht="70" customHeight="1" spans="1:3">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" ht="70" customHeight="1" spans="1:3">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="37" ht="70" customHeight="1"/>
     <row r="38" ht="70" customHeight="1"/>
     <row r="39" ht="70" customHeight="1"/>
@@ -1482,6 +2114,8 @@
     <row r="49" ht="70" customHeight="1"/>
     <row r="50" ht="70" customHeight="1"/>
     <row r="51" ht="70" customHeight="1"/>
+    <row r="52" ht="70" customHeight="1"/>
+    <row r="53" ht="70" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
